--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/99/word_level_predictions_99.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G76" s="2" t="b">
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -6378,158 +6378,158 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E116" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" s="2" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E117" s="2" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117" t="inlineStr">
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
+        <is>
+          <t>False_I-NonEvent</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="F260" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G260" s="2" t="b">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="L260" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="F261" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G261" s="2" t="b">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="F265" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G265" s="2" t="b">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="L265" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="F266" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G266" s="2" t="b">
@@ -14277,7 +14277,7 @@
       </c>
       <c r="L266" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="F268" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G268" s="2" t="b">
@@ -14381,7 +14381,7 @@
       </c>
       <c r="L268" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="F269" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G269" s="2" t="b">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="L269" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="F270" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G270" s="2" t="b">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="L270" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="F271" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G271" s="2" t="b">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="L271" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="F272" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G272" s="2" t="b">
@@ -14589,7 +14589,7 @@
       </c>
       <c r="L272" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="F273" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G273" s="2" t="b">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="L273" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" t="n">
         <v>37</v>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" s="2" t="n">
+      <c r="D453" t="n">
         <v>8</v>
       </c>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L453" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" t="n">
         <v>37</v>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" s="2" t="n">
+      <c r="D454" t="n">
         <v>9</v>
       </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L454" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" t="n">
         <v>37</v>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" s="2" t="n">
+      <c r="D455" t="n">
         <v>10</v>
       </c>
-      <c r="E455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L455" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" t="n">
         <v>37</v>
       </c>
-      <c r="B456" s="2" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" s="2" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" s="2" t="n">
+      <c r="D456" t="n">
         <v>11</v>
       </c>
-      <c r="E456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L456" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K456" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>37</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>12</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>37</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
+      <c r="D458" t="n">
         <v>13</v>
       </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>37</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>14</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24578,314 +24578,314 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="n">
+      <c r="A465" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B465" t="inlineStr">
+      <c r="B465" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C465" t="inlineStr">
+      <c r="C465" s="2" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D465" t="n">
+      <c r="D465" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E465" t="inlineStr">
+      <c r="E465" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F465" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G465" t="b">
-        <v>1</v>
-      </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I465" t="b">
-        <v>1</v>
-      </c>
-      <c r="J465" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K465" t="b">
-        <v>1</v>
-      </c>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F465" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G465" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H465" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I465" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J465" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K465" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L465" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="n">
+      <c r="A466" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B466" t="inlineStr">
+      <c r="B466" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C466" t="inlineStr">
+      <c r="C466" s="2" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D466" t="n">
+      <c r="D466" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F466" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G466" t="b">
-        <v>1</v>
-      </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I466" t="b">
-        <v>1</v>
-      </c>
-      <c r="J466" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K466" t="b">
-        <v>1</v>
-      </c>
-      <c r="L466" t="inlineStr">
+      <c r="E466" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F466" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G466" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H466" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I466" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J466" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K466" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L466" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="n">
+      <c r="A467" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B467" t="inlineStr">
+      <c r="B467" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C467" t="inlineStr">
+      <c r="C467" s="2" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D467" t="n">
+      <c r="D467" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F467" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G467" t="b">
-        <v>1</v>
-      </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I467" t="b">
-        <v>1</v>
-      </c>
-      <c r="J467" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K467" t="b">
-        <v>1</v>
-      </c>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E467" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F467" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G467" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H467" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I467" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J467" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K467" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L467" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="n">
+      <c r="A468" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B468" t="inlineStr">
+      <c r="B468" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr">
+      <c r="C468" s="2" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D468" t="n">
+      <c r="D468" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E468" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F468" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G468" t="b">
-        <v>1</v>
-      </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I468" t="b">
-        <v>1</v>
-      </c>
-      <c r="J468" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K468" t="b">
-        <v>1</v>
-      </c>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E468" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F468" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G468" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I468" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J468" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K468" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L468" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="n">
+      <c r="A469" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B469" t="inlineStr">
+      <c r="B469" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C469" t="inlineStr">
+      <c r="C469" s="2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D469" t="n">
+      <c r="D469" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G469" t="b">
-        <v>1</v>
-      </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I469" t="b">
-        <v>1</v>
-      </c>
-      <c r="J469" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K469" t="b">
-        <v>1</v>
-      </c>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E469" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F469" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G469" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I469" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J469" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K469" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L469" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="n">
+      <c r="A470" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B470" t="inlineStr">
+      <c r="B470" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C470" t="inlineStr">
+      <c r="C470" s="2" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D470" t="n">
+      <c r="D470" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E470" t="inlineStr">
+      <c r="E470" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F470" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G470" t="b">
-        <v>1</v>
-      </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I470" t="b">
-        <v>1</v>
-      </c>
-      <c r="J470" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K470" t="b">
-        <v>1</v>
-      </c>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F470" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G470" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J470" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L470" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/99/word_level_predictions_99.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G76" s="2" t="b">
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -6378,158 +6378,158 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>9</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>4</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>9</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" t="n">
         <v>5</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" t="n">
         <v>9</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" t="n">
         <v>6</v>
       </c>
-      <c r="E117" s="2" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="I117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="inlineStr">
-        <is>
-          <t>False_I-NonEvent</t>
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="F260" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G260" s="2" t="b">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="L260" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="F261" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G261" s="2" t="b">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="F265" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G265" s="2" t="b">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="L265" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="F266" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G266" s="2" t="b">
@@ -14277,7 +14277,7 @@
       </c>
       <c r="L266" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="F268" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G268" s="2" t="b">
@@ -14381,7 +14381,7 @@
       </c>
       <c r="L268" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="F269" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G269" s="2" t="b">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="L269" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="F270" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G270" s="2" t="b">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="L270" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="F271" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G271" s="2" t="b">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="L271" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="F272" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G272" s="2" t="b">
@@ -14589,7 +14589,7 @@
       </c>
       <c r="L272" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="F273" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G273" s="2" t="b">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="L273" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
+      <c r="A453" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G453" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K453" t="b">
-        <v>1</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
+      <c r="A454" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B454" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
+      <c r="A455" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K455" t="b">
-        <v>1</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
+      <c r="A456" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K456" t="b">
-        <v>1</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L456" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24578,314 +24578,314 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="2" t="n">
+      <c r="A465" t="n">
         <v>38</v>
       </c>
-      <c r="B465" s="2" t="inlineStr">
+      <c r="B465" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C465" s="2" t="inlineStr">
+      <c r="C465" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D465" s="2" t="n">
+      <c r="D465" t="n">
         <v>4</v>
       </c>
-      <c r="E465" s="2" t="inlineStr">
+      <c r="E465" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F465" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G465" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H465" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I465" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J465" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K465" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L465" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G465" t="b">
+        <v>1</v>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I465" t="b">
+        <v>1</v>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K465" t="b">
+        <v>1</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="2" t="n">
+      <c r="A466" t="n">
         <v>38</v>
       </c>
-      <c r="B466" s="2" t="inlineStr">
+      <c r="B466" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C466" s="2" t="inlineStr">
+      <c r="C466" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D466" s="2" t="n">
+      <c r="D466" t="n">
         <v>5</v>
       </c>
-      <c r="E466" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F466" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G466" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H466" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I466" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J466" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K466" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L466" s="2" t="inlineStr">
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G466" t="b">
+        <v>1</v>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I466" t="b">
+        <v>1</v>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K466" t="b">
+        <v>1</v>
+      </c>
+      <c r="L466" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="2" t="n">
+      <c r="A467" t="n">
         <v>38</v>
       </c>
-      <c r="B467" s="2" t="inlineStr">
+      <c r="B467" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C467" s="2" t="inlineStr">
+      <c r="C467" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D467" s="2" t="n">
+      <c r="D467" t="n">
         <v>6</v>
       </c>
-      <c r="E467" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F467" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G467" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H467" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I467" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J467" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K467" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L467" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G467" t="b">
+        <v>1</v>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I467" t="b">
+        <v>1</v>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K467" t="b">
+        <v>1</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="2" t="n">
+      <c r="A468" t="n">
         <v>38</v>
       </c>
-      <c r="B468" s="2" t="inlineStr">
+      <c r="B468" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C468" s="2" t="inlineStr">
+      <c r="C468" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D468" s="2" t="n">
+      <c r="D468" t="n">
         <v>7</v>
       </c>
-      <c r="E468" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F468" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G468" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H468" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I468" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J468" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K468" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L468" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G468" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I468" t="b">
+        <v>1</v>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K468" t="b">
+        <v>1</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="2" t="n">
+      <c r="A469" t="n">
         <v>38</v>
       </c>
-      <c r="B469" s="2" t="inlineStr">
+      <c r="B469" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C469" s="2" t="inlineStr">
+      <c r="C469" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D469" s="2" t="n">
+      <c r="D469" t="n">
         <v>8</v>
       </c>
-      <c r="E469" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F469" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G469" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H469" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I469" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J469" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K469" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L469" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G469" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I469" t="b">
+        <v>1</v>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K469" t="b">
+        <v>1</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="2" t="n">
+      <c r="A470" t="n">
         <v>38</v>
       </c>
-      <c r="B470" s="2" t="inlineStr">
+      <c r="B470" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C470" s="2" t="inlineStr">
+      <c r="C470" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D470" s="2" t="n">
+      <c r="D470" t="n">
         <v>9</v>
       </c>
-      <c r="E470" s="2" t="inlineStr">
+      <c r="E470" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F470" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G470" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H470" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J470" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L470" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G470" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I470" t="b">
+        <v>1</v>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K470" t="b">
+        <v>1</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
